--- a/data/新能源.xlsx
+++ b/data/新能源.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaolisheng/Desktop/showNews/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2EA1F2-70F9-7F4B-BDDE-4BA300C8556B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF38CD-0A4A-1A4A-A018-324C81B42420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31460" yWindow="2600" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自動表單" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
-  <si>
-    <t>標題</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="236">
   <si>
     <t>網址</t>
   </si>
@@ -1891,6 +1888,10 @@
 市場競爭加劇，可能影響電投能源的整體發展。
 </t>
   </si>
+  <si>
+    <t>標題</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1899,7 +1900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd&quot;  &quot;hh&quot;:&quot;mm&quot;:&quot;ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1925,6 +1926,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1946,11 +1954,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2169,80 +2178,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA203"/>
+  <dimension ref="A1:AA200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="12.6640625" hidden="1"/>
     <col min="10" max="13" width="12.6640625" hidden="1"/>
     <col min="15" max="19" width="12.6640625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2254,43 +2262,43 @@
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>45650.52175925926</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="N2" s="1">
         <v>40</v>
@@ -2321,43 +2329,43 @@
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>45650.521770833337</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="N3" s="1">
         <v>9</v>
@@ -2388,43 +2396,43 @@
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="3">
         <v>45650.522094907406</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N4" s="1">
         <v>39</v>
@@ -2455,43 +2463,43 @@
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="3">
         <v>45650.522407407407</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="N5" s="1">
         <v>47</v>
@@ -2522,43 +2530,43 @@
     </row>
     <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="3">
         <v>45650.522418981483</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="N6" s="1">
         <v>51</v>
@@ -2589,43 +2597,43 @@
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E7" s="3">
         <v>45650.522766203707</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="N7" s="1">
         <v>31</v>
@@ -2656,43 +2664,43 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>45650.522997685184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="N8" s="1">
         <v>39</v>
@@ -2723,43 +2731,43 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E9" s="3">
         <v>45650.523321759261</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="N9" s="1">
         <v>43</v>
@@ -2790,43 +2798,43 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E10" s="3">
         <v>45650.523553240739</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N10" s="1">
         <v>39</v>
@@ -2857,43 +2865,43 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="3">
         <v>45650.523877314816</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="N11" s="1">
         <v>40</v>
@@ -2924,43 +2932,43 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="3">
         <v>45650.524189814816</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="N12" s="1">
         <v>34</v>
@@ -2991,43 +2999,43 @@
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>45650.635312500002</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="N13" s="1">
         <v>42</v>
@@ -3057,29 +3065,63 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>123123123</v>
-      </c>
-      <c r="B14" s="2">
-        <v>213123123</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45650.635335648149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14" s="1">
+        <v>32</v>
+      </c>
+      <c r="O14" s="1">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>9</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -3091,49 +3133,49 @@
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E15" s="3">
-        <v>45650.635335648149</v>
+        <v>45650.635636574072</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="N15" s="1">
-        <v>32</v>
+        <v>-37</v>
       </c>
       <c r="O15" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
@@ -3142,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="R15" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -3158,46 +3200,46 @@
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E16" s="3">
-        <v>45650.635335648149</v>
+        <v>45650.673043981478</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="N16" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O16" s="1">
         <v>20</v>
@@ -3206,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R16" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -3225,46 +3267,46 @@
     </row>
     <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3">
-        <v>45650.635335648149</v>
+        <v>45650.673067129632</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="N17" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O17" s="1">
         <v>20</v>
@@ -3273,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -3292,61 +3334,61 @@
     </row>
     <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3">
-        <v>45650.635636574072</v>
+        <v>45650.673113425924</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="N18" s="1">
-        <v>-37</v>
+        <v>39</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S18" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -3359,46 +3401,46 @@
     </row>
     <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E19" s="3">
-        <v>45650.673043981478</v>
+        <v>45650.673333333332</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="N19" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O19" s="1">
         <v>20</v>
@@ -3407,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R19" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -3426,46 +3468,46 @@
     </row>
     <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3">
-        <v>45650.673067129632</v>
+        <v>45650.673356481479</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="N20" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O20" s="1">
         <v>20</v>
@@ -3474,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -3492,63 +3534,25 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45650.673113425924</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N21" s="1">
-        <v>39</v>
-      </c>
-      <c r="O21" s="1">
-        <v>20</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>8</v>
-      </c>
-      <c r="R21" s="1">
-        <v>11</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -3559,63 +3563,25 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45650.673333333332</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N22" s="1">
-        <v>39</v>
-      </c>
-      <c r="O22" s="1">
-        <v>20</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>9</v>
-      </c>
-      <c r="R22" s="1">
-        <v>10</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -3626,63 +3592,25 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45650.673356481479</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N23" s="1">
-        <v>35</v>
-      </c>
-      <c r="O23" s="1">
-        <v>20</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>3</v>
-      </c>
-      <c r="R23" s="1">
-        <v>12</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -8825,93 +8753,6 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
-      <c r="Y201" s="1"/>
-      <c r="Z201" s="1"/>
-      <c r="AA201" s="1"/>
-    </row>
-    <row r="202" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
-      <c r="W202" s="1"/>
-      <c r="X202" s="1"/>
-      <c r="Y202" s="1"/>
-      <c r="Z202" s="1"/>
-      <c r="AA202" s="1"/>
-    </row>
-    <row r="203" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
-      <c r="Z203" s="1"/>
-      <c r="AA203" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -8927,15 +8768,13 @@
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B16" r:id="rId20" xr:uid="{E549DFD6-DA3D-D845-8AAB-FF5EF95A90B5}"/>
-    <hyperlink ref="B15" r:id="rId21" xr:uid="{912A52A0-FC37-2548-9038-7EFB91100A58}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
